--- a/Blade_data.xlsx
+++ b/Blade_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianguillebeaud/Documents/DTU/B_Semester-2/46310_WT_Aeroelasticity/Assignments/Assignment2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blanc\Documents\Projects in aeroelasticity\git\assignment3\WindTurbineAssignment3-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B210C38-2182-4883-ABEF-37802850786D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="460" windowWidth="15000" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -88,6 +89,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -355,336 +359,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2.8</v>
       </c>
       <c r="B2">
+        <v>5.38</v>
+      </c>
+      <c r="C2">
+        <v>-14.5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
         <v>1189.51</v>
       </c>
-      <c r="C2">
-        <v>5.38</v>
-      </c>
-      <c r="D2">
-        <v>-14.5</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>11</v>
       </c>
       <c r="B3">
+        <v>5.45</v>
+      </c>
+      <c r="C3">
+        <v>-14.43</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
         <v>1113.6199999999999</v>
       </c>
-      <c r="C3">
-        <v>5.45</v>
-      </c>
-      <c r="D3">
-        <v>-14.43</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>16.87</v>
       </c>
       <c r="B4">
+        <v>5.87</v>
+      </c>
+      <c r="C4">
+        <v>-12.55</v>
+      </c>
+      <c r="D4">
+        <v>86.05</v>
+      </c>
+      <c r="E4">
         <v>868.87</v>
       </c>
-      <c r="C4">
-        <v>5.87</v>
-      </c>
-      <c r="D4">
-        <v>-12.55</v>
-      </c>
-      <c r="E4">
-        <v>86.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>22.96</v>
       </c>
       <c r="B5">
+        <v>6.18</v>
+      </c>
+      <c r="C5">
+        <v>-8.89</v>
+      </c>
+      <c r="D5">
+        <v>61.1</v>
+      </c>
+      <c r="E5">
         <v>735.79</v>
       </c>
-      <c r="C5">
-        <v>6.18</v>
-      </c>
-      <c r="D5">
-        <v>-8.89</v>
-      </c>
-      <c r="E5">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>32.31</v>
       </c>
       <c r="B6">
+        <v>6.02</v>
+      </c>
+      <c r="C6">
+        <v>-6.38</v>
+      </c>
+      <c r="D6">
+        <v>43.04</v>
+      </c>
+      <c r="E6">
         <v>566.23</v>
       </c>
-      <c r="C6">
-        <v>6.02</v>
-      </c>
-      <c r="D6">
-        <v>-6.38</v>
-      </c>
-      <c r="E6">
-        <v>43.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>41.57</v>
       </c>
       <c r="B7">
+        <v>5.42</v>
+      </c>
+      <c r="C7">
+        <v>-4.67</v>
+      </c>
+      <c r="D7">
+        <v>32.42</v>
+      </c>
+      <c r="E7">
         <v>477.51</v>
       </c>
-      <c r="C7">
-        <v>5.42</v>
-      </c>
-      <c r="D7">
-        <v>-4.67</v>
-      </c>
-      <c r="E7">
-        <v>32.42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>50.41</v>
       </c>
       <c r="B8">
+        <v>4.7</v>
+      </c>
+      <c r="C8">
+        <v>-2.89</v>
+      </c>
+      <c r="D8">
+        <v>27.81</v>
+      </c>
+      <c r="E8">
         <v>385.14</v>
       </c>
-      <c r="C8">
-        <v>4.7</v>
-      </c>
-      <c r="D8">
-        <v>-2.89</v>
-      </c>
-      <c r="E8">
-        <v>27.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>58.53</v>
       </c>
       <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>-1.21</v>
+      </c>
+      <c r="D9">
+        <v>25.32</v>
+      </c>
+      <c r="E9">
         <v>291.66000000000003</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>-1.21</v>
-      </c>
-      <c r="E9">
-        <v>25.32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>65.75</v>
       </c>
       <c r="B10">
+        <v>3.4</v>
+      </c>
+      <c r="C10">
+        <v>0.13</v>
+      </c>
+      <c r="D10">
+        <v>24.26</v>
+      </c>
+      <c r="E10">
         <v>221.77</v>
       </c>
-      <c r="C10">
-        <v>3.4</v>
-      </c>
-      <c r="D10">
-        <v>0.13</v>
-      </c>
-      <c r="E10">
-        <v>24.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>71.97</v>
       </c>
       <c r="B11">
+        <v>2.91</v>
+      </c>
+      <c r="C11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D11">
+        <v>24.1</v>
+      </c>
+      <c r="E11">
         <v>153.75</v>
       </c>
-      <c r="C11">
-        <v>2.91</v>
-      </c>
-      <c r="D11">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E11">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>77.19</v>
       </c>
       <c r="B12">
+        <v>2.54</v>
+      </c>
+      <c r="C12">
+        <v>1.86</v>
+      </c>
+      <c r="D12">
+        <v>24.1</v>
+      </c>
+      <c r="E12">
         <v>108.93</v>
       </c>
-      <c r="C12">
-        <v>2.54</v>
-      </c>
-      <c r="D12">
-        <v>1.86</v>
-      </c>
-      <c r="E12">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>78.709999999999994</v>
       </c>
       <c r="B13">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C13">
+        <v>2.08</v>
+      </c>
+      <c r="D13">
+        <v>24.1</v>
+      </c>
+      <c r="E13">
         <v>95.18</v>
       </c>
-      <c r="C13">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="D13">
-        <v>2.08</v>
-      </c>
-      <c r="E13">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>80.14</v>
       </c>
       <c r="B14">
+        <v>2.33</v>
+      </c>
+      <c r="C14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D14">
+        <v>24.1</v>
+      </c>
+      <c r="E14">
         <v>82.34</v>
       </c>
-      <c r="C14">
-        <v>2.33</v>
-      </c>
-      <c r="D14">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E14">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>82.71</v>
       </c>
       <c r="B15">
+        <v>2.13</v>
+      </c>
+      <c r="C15">
+        <v>2.64</v>
+      </c>
+      <c r="D15">
+        <v>24.1</v>
+      </c>
+      <c r="E15">
         <v>68.28</v>
       </c>
-      <c r="C15">
-        <v>2.13</v>
-      </c>
-      <c r="D15">
-        <v>2.64</v>
-      </c>
-      <c r="E15">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>84.93</v>
       </c>
       <c r="B16">
+        <v>1.9</v>
+      </c>
+      <c r="C16">
+        <v>2.95</v>
+      </c>
+      <c r="D16">
+        <v>24.1</v>
+      </c>
+      <c r="E16">
         <v>54.47</v>
       </c>
-      <c r="C16">
-        <v>1.9</v>
-      </c>
-      <c r="D16">
-        <v>2.95</v>
-      </c>
-      <c r="E16">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>86.83</v>
       </c>
       <c r="B17">
+        <v>1.63</v>
+      </c>
+      <c r="C17">
+        <v>3.18</v>
+      </c>
+      <c r="D17">
+        <v>24.1</v>
+      </c>
+      <c r="E17">
         <v>40.65</v>
       </c>
-      <c r="C17">
-        <v>1.63</v>
-      </c>
-      <c r="D17">
-        <v>3.18</v>
-      </c>
-      <c r="E17">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>88.45</v>
       </c>
       <c r="B18">
+        <v>1.18</v>
+      </c>
+      <c r="C18">
+        <v>3.36</v>
+      </c>
+      <c r="D18">
+        <v>24.1</v>
+      </c>
+      <c r="E18">
         <v>25.2</v>
       </c>
-      <c r="C18">
-        <v>1.18</v>
-      </c>
-      <c r="D18">
-        <v>3.36</v>
-      </c>
-      <c r="E18">
-        <v>24.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>89.17</v>
       </c>
       <c r="B19">
+        <v>0.6</v>
+      </c>
+      <c r="C19">
+        <v>3.43</v>
+      </c>
+      <c r="D19">
+        <v>24.1</v>
+      </c>
+      <c r="E19">
         <v>15.42</v>
-      </c>
-      <c r="C19">
-        <v>0.6</v>
-      </c>
-      <c r="D19">
-        <v>3.43</v>
-      </c>
-      <c r="E19">
-        <v>24.1</v>
       </c>
     </row>
   </sheetData>
